--- a/excel_request/case/api_cases.xlsx
+++ b/excel_request/case/api_cases.xlsx
@@ -44,6 +44,7 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
@@ -440,7 +441,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
@@ -531,7 +532,7 @@
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="inlineStr">
         <is>
-          <t>{'current': 1670179712284, 'update': 1670179711503, 'asks': [['452607.2', '18615.87272546'], ['452608.2', '22222']], 'bids': [['452605.75', '2204.97845733'], ['407950', '0.001'], ['362532', '1.2322'], ['352257.7', '0.0004'], ['310683.1', '0.0185'], ['244938.3', '1.2322'], ['238088.8', '0.0004'], ['207448.4', '0.0185'], ['127344.6', '1.2322'], ['123919.9', '0.0004']]}</t>
+          <t>{'current': 1670204162259, 'update': 1670204161547, 'asks': [['452607.2', '18244.730383537'], ['452608.2', '22222']], 'bids': [['452605.75', '2204.97845733'], ['407950', '0.001'], ['362532', '1.2322'], ['352257.7', '0.0004'], ['310683.1', '0.0185'], ['244938.3', '1.2322'], ['238088.8', '0.0004'], ['207448.4', '0.0185'], ['127344.6', '1.2322'], ['123919.9', '0.0004']]}</t>
         </is>
       </c>
       <c r="I2" s="2" t="n"/>
@@ -576,7 +577,7 @@
       </c>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>{'id': '1679296205', 'text': 't-123456', 'create_time': '1670179713', 'update_time': '1670179713', 'create_time_ms': 1670179713275, 'update_time_ms': 1670179713275, 'status': 'closed', 'currency_pair': 'ETH_USDT', 'type': 'limit', 'account': 'spot', 'side': 'buy', 'amount': '1', 'price': '5900', 'time_in_force': 'gtc', 'iceberg': '0', 'left': '0', 'fill_price': '2223', 'filled_total': '2223', 'avg_deal_price': '2223', 'fee': '0.002', 'fee_currency': 'ETH', 'point_fee': '0', 'gt_fee': '0', 'gt_maker_fee': '0', 'gt_taker_fee': '0', 'gt_discount': False, 'rebated_fee': '0', 'rebated_fee_currency': 'USDT'}</t>
+          <t>{'id': '1679436601', 'text': 't-123456', 'create_time': '1670204163', 'update_time': '1670204163', 'create_time_ms': 1670204163361, 'update_time_ms': 1670204163361, 'status': 'closed', 'currency_pair': 'ETH_USDT', 'type': 'limit', 'account': 'spot', 'side': 'buy', 'amount': '1', 'price': '5900', 'time_in_force': 'gtc', 'iceberg': '0', 'left': '0', 'fill_price': '2223', 'filled_total': '2223', 'avg_deal_price': '2223', 'fee': '0.002', 'fee_currency': 'ETH', 'point_fee': '0', 'gt_fee': '0', 'gt_maker_fee': '0', 'gt_taker_fee': '0', 'gt_discount': False, 'rebated_fee': '0', 'rebated_fee_currency': 'USDT'}</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -612,7 +613,7 @@
       <c r="F4" s="5" t="n"/>
       <c r="H4" s="9" t="inlineStr">
         <is>
-          <t>{'label': 'INVALID_SIGNATURE', 'message': 'Signature mismatch'}</t>
+          <t>{'id': '1679436601', 'text': 't-123456', 'create_time': '1670204163', 'update_time': '1670204163', 'create_time_ms': 1670204163448, 'update_time_ms': 1670204163448, 'status': 'closed', 'currency_pair': 'ETH_USDT', 'type': 'limit', 'account': 'spot', 'side': 'buy', 'amount': '1', 'price': '5900', 'time_in_force': 'gtc', 'iceberg': '0', 'left': '0', 'fill_price': '2223', 'filled_total': '2223', 'avg_deal_price': '2223', 'fee': '0.002', 'fee_currency': 'ETH', 'point_fee': '0', 'gt_fee': '0', 'gt_maker_fee': '0', 'gt_taker_fee': '0', 'gt_discount': False, 'rebated_fee': '0', 'rebated_fee_currency': 'USDT'}</t>
         </is>
       </c>
       <c r="I4" s="2" t="n"/>
@@ -657,9 +658,9 @@
 }</t>
         </is>
       </c>
-      <c r="H5" s="8" t="inlineStr">
-        <is>
-          <t>{'id': '1679296207', 'text': 't-123456', 'create_time': '1670179713', 'update_time': '1670179713', 'create_time_ms': 1670179713345, 'update_time_ms': 1670179713345, 'status': 'open', 'currency_pair': 'ETH_USDT', 'type': 'limit', 'account': 'spot', 'side': 'sell', 'amount': '1', 'price': '5900', 'time_in_force': 'gtc', 'iceberg': '0', 'left': '1', 'fill_price': '0', 'filled_total': '0', 'fee': '0', 'fee_currency': 'USDT', 'point_fee': '0', 'gt_fee': '0', 'gt_maker_fee': '0', 'gt_taker_fee': '0', 'gt_discount': False, 'rebated_fee': '0', 'rebated_fee_currency': 'ETH'}</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{'id': '1679436611', 'text': 't-123456', 'create_time': '1670204165', 'update_time': '1670204165', 'create_time_ms': 1670204165476, 'update_time_ms': 1670204165476, 'status': 'open', 'currency_pair': 'ETH_USDT', 'type': 'limit', 'account': 'spot', 'side': 'sell', 'amount': '1', 'price': '5900', 'time_in_force': 'gtc', 'iceberg': '0', 'left': '1', 'fill_price': '0', 'filled_total': '0', 'fee': '0', 'fee_currency': 'USDT', 'point_fee': '0', 'gt_fee': '0', 'gt_maker_fee': '0', 'gt_taker_fee': '0', 'gt_discount': False, 'rebated_fee': '0', 'rebated_fee_currency': 'ETH'}</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
